--- a/biology/Médecine/Membrane_stapédiale/Membrane_stapédiale.xlsx
+++ b/biology/Médecine/Membrane_stapédiale/Membrane_stapédiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Membrane_stap%C3%A9diale</t>
+          <t>Membrane_stapédiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane stapédiale (ou  membrane obturatrice de l'étrier de Testut) est un repli horizontal de la muqueuse de la cavité tympanique qui comble l'espace entre la base du stapès et ses deux branches.
 </t>
